--- a/prep_and_checklists/Digital Turbine  /PREPLIST_Digital Turbine  _11-25-2025_0.xlsx
+++ b/prep_and_checklists/Digital Turbine  /PREPLIST_Digital Turbine  _11-25-2025_0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcuvin/purveyor_project/prep_and_checklists/Digital Turbine  /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839BA065-4885-2B44-8C83-F5D008A7A135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F516C552-FA16-7E4B-AC11-0C38B2C34320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="127">
   <si>
     <t xml:space="preserve">Digital Turbine  , Guests: 28   , 6:00 PM - 8:00 PM   ,Wednesday, December 3, 2025  </t>
   </si>
@@ -41,9 +41,6 @@
     <t>cook / chop lobster meat</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
     <t>cut brioche buns</t>
   </si>
   <si>
@@ -143,9 +140,6 @@
     <t>make / sheet / punch - out / bake Arepa</t>
   </si>
   <si>
-    <t>pick chervil</t>
-  </si>
-  <si>
     <t>pickled red onions</t>
   </si>
   <si>
@@ -333,6 +327,81 @@
   </si>
   <si>
     <t>6-8pm PASSED CANAPES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4lbs </t>
+  </si>
+  <si>
+    <t>2DZ, 72 pcs</t>
+  </si>
+  <si>
+    <t>1 x recipe</t>
+  </si>
+  <si>
+    <t>2 x sourdough loaves</t>
+  </si>
+  <si>
+    <t>1 x squeeze bottle</t>
+  </si>
+  <si>
+    <t>1 quart</t>
+  </si>
+  <si>
+    <t>4 each</t>
+  </si>
+  <si>
+    <t>1 cup</t>
+  </si>
+  <si>
+    <t>2lbs</t>
+  </si>
+  <si>
+    <t>1 pint, pull from reach-in freezer</t>
+  </si>
+  <si>
+    <t>75pcs, fried and cut in half</t>
+  </si>
+  <si>
+    <t>1 cup, in a piping bag</t>
+  </si>
+  <si>
+    <t>100 pcs</t>
+  </si>
+  <si>
+    <t>80 pcs, see pastry</t>
+  </si>
+  <si>
+    <t>1pint, in a piping bag</t>
+  </si>
+  <si>
+    <t>80 pcs</t>
+  </si>
+  <si>
+    <t>1cup</t>
+  </si>
+  <si>
+    <t>1cup, in a piping bag</t>
+  </si>
+  <si>
+    <t>1 pint, in a squeeze bottle</t>
+  </si>
+  <si>
+    <t>1 pc</t>
+  </si>
+  <si>
+    <t>1 pint</t>
+  </si>
+  <si>
+    <t>pick peashoots</t>
+  </si>
+  <si>
+    <t>2 steaks, pull from reach-in freezer</t>
+  </si>
+  <si>
+    <t>1/2 recipe, in a piping bag</t>
+  </si>
+  <si>
+    <t>1 cup, pull from reach-in freezer</t>
   </si>
 </sst>
 </file>
@@ -776,14 +845,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="44.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
@@ -804,7 +873,7 @@
     </row>
     <row r="4" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B4" s="8"/>
     </row>
@@ -821,28 +890,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
@@ -850,63 +919,63 @@
     </row>
     <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>6</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>6</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>4</v>
@@ -914,63 +983,63 @@
     </row>
     <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>6</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>4</v>
@@ -978,39 +1047,39 @@
     </row>
     <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>6</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>4</v>
@@ -1018,39 +1087,39 @@
     </row>
     <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>6</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>6</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>4</v>
@@ -1058,31 +1127,31 @@
     </row>
     <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>6</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>6</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>4</v>
@@ -1090,55 +1159,55 @@
     </row>
     <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>6</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>6</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>6</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>4</v>
@@ -1146,42 +1215,42 @@
     </row>
     <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>6</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>6</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>6</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1204,7 +1273,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.2">
@@ -1214,382 +1283,382 @@
     </row>
     <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
